--- a/natmiOut/OldD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.9046823076597</v>
+        <v>22.908061</v>
       </c>
       <c r="H2">
-        <v>22.9046823076597</v>
+        <v>45.816122</v>
       </c>
       <c r="I2">
-        <v>0.1484955030396545</v>
+        <v>0.1456291846194737</v>
       </c>
       <c r="J2">
-        <v>0.1484955030396545</v>
+        <v>0.1077343526439498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>293.1352257864655</v>
+        <v>344.99860578854</v>
       </c>
       <c r="R2">
-        <v>293.1352257864655</v>
+        <v>1379.99442315416</v>
       </c>
       <c r="S2">
-        <v>0.1085126391106714</v>
+        <v>0.1085974750126452</v>
       </c>
       <c r="T2">
-        <v>0.1085126391106714</v>
+        <v>0.0712764681186185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.9046823076597</v>
+        <v>22.908061</v>
       </c>
       <c r="H3">
-        <v>22.9046823076597</v>
+        <v>45.816122</v>
       </c>
       <c r="I3">
-        <v>0.1484955030396545</v>
+        <v>0.1456291846194737</v>
       </c>
       <c r="J3">
-        <v>0.1484955030396545</v>
+        <v>0.1077343526439498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>1.561812124693968</v>
+        <v>2.529355375213333</v>
       </c>
       <c r="R3">
-        <v>1.561812124693968</v>
+        <v>15.17613225128</v>
       </c>
       <c r="S3">
-        <v>0.0005781507663942193</v>
+        <v>0.0007961817889959545</v>
       </c>
       <c r="T3">
-        <v>0.0005781507663942193</v>
+        <v>0.0007838445492409496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.9046823076597</v>
+        <v>22.908061</v>
       </c>
       <c r="H4">
-        <v>22.9046823076597</v>
+        <v>45.816122</v>
       </c>
       <c r="I4">
-        <v>0.1484955030396545</v>
+        <v>0.1456291846194737</v>
       </c>
       <c r="J4">
-        <v>0.1484955030396545</v>
+        <v>0.1077343526439498</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>106.4475952721569</v>
+        <v>1.250207429075</v>
       </c>
       <c r="R4">
-        <v>106.4475952721569</v>
+        <v>7.50124457445</v>
       </c>
       <c r="S4">
-        <v>0.03940471316258883</v>
+        <v>0.0003935359962666426</v>
       </c>
       <c r="T4">
-        <v>0.03940471316258883</v>
+        <v>0.0003874379568423938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.1943072734696</v>
+        <v>22.908061</v>
       </c>
       <c r="H5">
-        <v>31.1943072734696</v>
+        <v>45.816122</v>
       </c>
       <c r="I5">
-        <v>0.2022387513752301</v>
+        <v>0.1456291846194737</v>
       </c>
       <c r="J5">
-        <v>0.2022387513752301</v>
+        <v>0.1077343526439498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>399.2262447928798</v>
+        <v>113.8648684574353</v>
       </c>
       <c r="R5">
-        <v>399.2262447928798</v>
+        <v>683.1892107446121</v>
       </c>
       <c r="S5">
-        <v>0.1477853550643402</v>
+        <v>0.03584199182156585</v>
       </c>
       <c r="T5">
-        <v>0.1477853550643402</v>
+        <v>0.03528660201924794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.1943072734696</v>
+        <v>33.20169866666667</v>
       </c>
       <c r="H6">
-        <v>31.1943072734696</v>
+        <v>99.605096</v>
       </c>
       <c r="I6">
-        <v>0.2022387513752301</v>
+        <v>0.2110670259175638</v>
       </c>
       <c r="J6">
-        <v>0.2022387513752301</v>
+        <v>0.2342164737905681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>2.127060601265855</v>
+        <v>500.0222301578133</v>
       </c>
       <c r="R6">
-        <v>2.127060601265855</v>
+        <v>3000.13338094688</v>
       </c>
       <c r="S6">
-        <v>0.0007873941412958177</v>
+        <v>0.1573952785148734</v>
       </c>
       <c r="T6">
-        <v>0.0007873941412958177</v>
+        <v>0.1549563590191229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.1943072734696</v>
+        <v>33.20169866666667</v>
       </c>
       <c r="H7">
-        <v>31.1943072734696</v>
+        <v>99.605096</v>
       </c>
       <c r="I7">
-        <v>0.2022387513752301</v>
+        <v>0.2110670259175638</v>
       </c>
       <c r="J7">
-        <v>0.2022387513752301</v>
+        <v>0.2342164737905681</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>144.9729339546938</v>
+        <v>3.665910222115555</v>
       </c>
       <c r="R7">
-        <v>144.9729339546938</v>
+        <v>32.99319199904</v>
       </c>
       <c r="S7">
-        <v>0.05366600216959404</v>
+        <v>0.001153942616187868</v>
       </c>
       <c r="T7">
-        <v>0.05366600216959404</v>
+        <v>0.001704092537037978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.4408721680918</v>
+        <v>33.20169866666667</v>
       </c>
       <c r="H8">
-        <v>30.4408721680918</v>
+        <v>99.605096</v>
       </c>
       <c r="I8">
-        <v>0.1973540852847776</v>
+        <v>0.2110670259175638</v>
       </c>
       <c r="J8">
-        <v>0.1973540852847776</v>
+        <v>0.2342164737905681</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>389.5837460773873</v>
+        <v>1.811982704733333</v>
       </c>
       <c r="R8">
-        <v>389.5837460773873</v>
+        <v>16.3078443426</v>
       </c>
       <c r="S8">
-        <v>0.1442159001125101</v>
+        <v>0.0005703696861350039</v>
       </c>
       <c r="T8">
-        <v>0.1442159001125101</v>
+        <v>0.0008422972787904329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.4408721680918</v>
+        <v>33.20169866666667</v>
       </c>
       <c r="H9">
-        <v>30.4408721680918</v>
+        <v>99.605096</v>
       </c>
       <c r="I9">
-        <v>0.1973540852847776</v>
+        <v>0.2110670259175638</v>
       </c>
       <c r="J9">
-        <v>0.1973540852847776</v>
+        <v>0.2342164737905681</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>2.07568577462809</v>
+        <v>165.0295523153796</v>
       </c>
       <c r="R9">
-        <v>2.07568577462809</v>
+        <v>1485.265970838416</v>
       </c>
       <c r="S9">
-        <v>0.0007683762357972195</v>
+        <v>0.05194743510036753</v>
       </c>
       <c r="T9">
-        <v>0.0007683762357972195</v>
+        <v>0.07671372495561683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.4408721680918</v>
+        <v>30.45681333333333</v>
       </c>
       <c r="H10">
-        <v>30.4408721680918</v>
+        <v>91.37044</v>
       </c>
       <c r="I10">
-        <v>0.1973540852847776</v>
+        <v>0.1936174734230386</v>
       </c>
       <c r="J10">
-        <v>0.1973540852847776</v>
+        <v>0.2148530860860038</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>141.4714073199292</v>
+        <v>458.6838727538667</v>
       </c>
       <c r="R10">
-        <v>141.4714073199292</v>
+        <v>2752.1032365232</v>
       </c>
       <c r="S10">
-        <v>0.05236980893647032</v>
+        <v>0.1443829324940014</v>
       </c>
       <c r="T10">
-        <v>0.05236980893647032</v>
+        <v>0.1421456458851787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.6347802740289</v>
+        <v>30.45681333333333</v>
       </c>
       <c r="H11">
-        <v>28.6347802740289</v>
+        <v>91.37044</v>
       </c>
       <c r="I11">
-        <v>0.185644840828022</v>
+        <v>0.1936174734230386</v>
       </c>
       <c r="J11">
-        <v>0.185644840828022</v>
+        <v>0.2148530860860038</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>366.4692951522075</v>
+        <v>3.362838282844444</v>
       </c>
       <c r="R11">
-        <v>366.4692951522075</v>
+        <v>30.2655445456</v>
       </c>
       <c r="S11">
-        <v>0.1356594051885173</v>
+        <v>0.001058542673116209</v>
       </c>
       <c r="T11">
-        <v>0.1356594051885173</v>
+        <v>0.001563210028027846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.6347802740289</v>
+        <v>30.45681333333333</v>
       </c>
       <c r="H12">
-        <v>28.6347802740289</v>
+        <v>91.37044</v>
       </c>
       <c r="I12">
-        <v>0.185644840828022</v>
+        <v>0.1936174734230386</v>
       </c>
       <c r="J12">
-        <v>0.185644840828022</v>
+        <v>0.2148530860860038</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>1.952532954581526</v>
+        <v>1.662180587666667</v>
       </c>
       <c r="R12">
-        <v>1.952532954581526</v>
+        <v>14.959625289</v>
       </c>
       <c r="S12">
-        <v>0.000722787591575699</v>
+        <v>0.0005232154907497625</v>
       </c>
       <c r="T12">
-        <v>0.000722787591575699</v>
+        <v>0.0007726620028947566</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.6347802740289</v>
+        <v>30.45681333333333</v>
       </c>
       <c r="H13">
-        <v>28.6347802740289</v>
+        <v>91.37044</v>
       </c>
       <c r="I13">
-        <v>0.185644840828022</v>
+        <v>0.1936174734230386</v>
       </c>
       <c r="J13">
-        <v>0.185644840828022</v>
+        <v>0.2148530860860038</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>133.0777463041972</v>
+        <v>151.3860576778045</v>
       </c>
       <c r="R13">
-        <v>133.0777463041972</v>
+        <v>1362.47451910024</v>
       </c>
       <c r="S13">
-        <v>0.04926264804792897</v>
+        <v>0.04765278276517122</v>
       </c>
       <c r="T13">
-        <v>0.04926264804792897</v>
+        <v>0.07037156816990256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4385535624442</v>
+        <v>28.807309</v>
       </c>
       <c r="H14">
-        <v>17.4385535624442</v>
+        <v>86.421927</v>
       </c>
       <c r="I14">
-        <v>0.1130575289696606</v>
+        <v>0.1831313842210925</v>
       </c>
       <c r="J14">
-        <v>0.1130575289696606</v>
+        <v>0.2032169016746482</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>223.1794472087903</v>
+        <v>433.84210656326</v>
       </c>
       <c r="R14">
-        <v>223.1794472087903</v>
+        <v>2603.05263937956</v>
       </c>
       <c r="S14">
-        <v>0.08261644688696704</v>
+        <v>0.1365633267393975</v>
       </c>
       <c r="T14">
-        <v>0.08261644688696704</v>
+        <v>0.1344472088791163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4385535624442</v>
+        <v>28.807309</v>
       </c>
       <c r="H15">
-        <v>17.4385535624442</v>
+        <v>86.421927</v>
       </c>
       <c r="I15">
-        <v>0.1130575289696606</v>
+        <v>0.1831313842210925</v>
       </c>
       <c r="J15">
-        <v>0.1130575289696606</v>
+        <v>0.2032169016746482</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>1.189090685699773</v>
+        <v>3.180711011053333</v>
       </c>
       <c r="R15">
-        <v>1.189090685699773</v>
+        <v>28.62639909948</v>
       </c>
       <c r="S15">
-        <v>0.0004401769459846266</v>
+        <v>0.001001213276661838</v>
       </c>
       <c r="T15">
-        <v>0.0004401769459846266</v>
+        <v>0.001478548455363578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4385535624442</v>
+        <v>28.807309</v>
       </c>
       <c r="H16">
-        <v>17.4385535624442</v>
+        <v>86.421927</v>
       </c>
       <c r="I16">
-        <v>0.1130575289696606</v>
+        <v>0.1831313842210925</v>
       </c>
       <c r="J16">
-        <v>0.1130575289696606</v>
+        <v>0.2032169016746482</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N16">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O16">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P16">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q16">
-        <v>81.04421911698448</v>
+        <v>1.572158888675</v>
       </c>
       <c r="R16">
-        <v>81.04421911698448</v>
+        <v>14.149429998075</v>
       </c>
       <c r="S16">
-        <v>0.03000090513670898</v>
+        <v>0.000494878769838967</v>
       </c>
       <c r="T16">
-        <v>0.03000090513670898</v>
+        <v>0.0007308155592754555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.6317602466935</v>
+        <v>28.807309</v>
       </c>
       <c r="H17">
-        <v>23.6317602466935</v>
+        <v>86.421927</v>
       </c>
       <c r="I17">
-        <v>0.1532092905026552</v>
+        <v>0.1831313842210925</v>
       </c>
       <c r="J17">
-        <v>0.1532092905026552</v>
+        <v>0.2032169016746482</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N17">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O17">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P17">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q17">
-        <v>302.4404042194253</v>
+        <v>143.1871710965713</v>
       </c>
       <c r="R17">
-        <v>302.4404042194253</v>
+        <v>1288.684539869142</v>
       </c>
       <c r="S17">
-        <v>0.1119572250230166</v>
+        <v>0.0450719654351942</v>
       </c>
       <c r="T17">
-        <v>0.1119572250230166</v>
+        <v>0.06656032878089285</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.6317602466935</v>
+        <v>18.19545866666666</v>
       </c>
       <c r="H18">
-        <v>23.6317602466935</v>
+        <v>54.58637599999999</v>
       </c>
       <c r="I18">
-        <v>0.1532092905026552</v>
+        <v>0.1156706283174295</v>
       </c>
       <c r="J18">
-        <v>0.1532092905026552</v>
+        <v>0.1283571726463282</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N18">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O18">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P18">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q18">
-        <v>1.611389723087495</v>
+        <v>274.0261548842133</v>
       </c>
       <c r="R18">
-        <v>1.611389723087495</v>
+        <v>1644.15692930528</v>
       </c>
       <c r="S18">
-        <v>0.0005965033749147987</v>
+        <v>0.08625701092279053</v>
       </c>
       <c r="T18">
-        <v>0.0005965033749147987</v>
+        <v>0.08492041488528691</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.19545866666666</v>
+      </c>
+      <c r="H19">
+        <v>54.58637599999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1156706283174295</v>
+      </c>
+      <c r="J19">
+        <v>0.1283571726463282</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>2.009021242915555</v>
+      </c>
+      <c r="R19">
+        <v>18.08119118624</v>
+      </c>
+      <c r="S19">
+        <v>0.0006323927997585046</v>
+      </c>
+      <c r="T19">
+        <v>0.0009338903299239726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.19545866666666</v>
+      </c>
+      <c r="H20">
+        <v>54.58637599999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1156706283174295</v>
+      </c>
+      <c r="J20">
+        <v>0.1283571726463282</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>0.9930171567333332</v>
+      </c>
+      <c r="R20">
+        <v>8.9371544106</v>
+      </c>
+      <c r="S20">
+        <v>0.000312578526568232</v>
+      </c>
+      <c r="T20">
+        <v>0.0004616024461623066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.19545866666666</v>
+      </c>
+      <c r="H21">
+        <v>54.58637599999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1156706283174295</v>
+      </c>
+      <c r="J21">
+        <v>0.1283571726463282</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>90.44080629969956</v>
+      </c>
+      <c r="R21">
+        <v>813.967256697296</v>
+      </c>
+      <c r="S21">
+        <v>0.0284686460683122</v>
+      </c>
+      <c r="T21">
+        <v>0.04204126498495501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>23.7347125</v>
+      </c>
+      <c r="H22">
+        <v>47.469425</v>
+      </c>
+      <c r="I22">
+        <v>0.150884303501402</v>
+      </c>
+      <c r="J22">
+        <v>0.1116220131585018</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>357.44809310975</v>
+      </c>
+      <c r="R22">
+        <v>1429.792372439</v>
+      </c>
+      <c r="S22">
+        <v>0.1125162818298357</v>
+      </c>
+      <c r="T22">
+        <v>0.07384852340016144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>23.7347125</v>
+      </c>
+      <c r="H23">
+        <v>47.469425</v>
+      </c>
+      <c r="I23">
+        <v>0.150884303501402</v>
+      </c>
+      <c r="J23">
+        <v>0.1116220131585018</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>2.620628722833333</v>
+      </c>
+      <c r="R23">
+        <v>15.723772337</v>
+      </c>
+      <c r="S23">
+        <v>0.0008249124995587643</v>
+      </c>
+      <c r="T23">
+        <v>0.0008121300629034483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23.7347125</v>
+      </c>
+      <c r="H24">
+        <v>47.469425</v>
+      </c>
+      <c r="I24">
+        <v>0.150884303501402</v>
+      </c>
+      <c r="J24">
+        <v>0.1116220131585018</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>1.2953219346875</v>
+      </c>
+      <c r="R24">
+        <v>7.771931608125001</v>
+      </c>
+      <c r="S24">
+        <v>0.0004077369852380712</v>
+      </c>
+      <c r="T24">
+        <v>0.0004014188943028231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>23.6317602466935</v>
-      </c>
-      <c r="H19">
-        <v>23.6317602466935</v>
-      </c>
-      <c r="I19">
-        <v>0.1532092905026552</v>
-      </c>
-      <c r="J19">
-        <v>0.1532092905026552</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q19">
-        <v>109.826629180857</v>
-      </c>
-      <c r="R19">
-        <v>109.826629180857</v>
-      </c>
-      <c r="S19">
-        <v>0.04065556210472377</v>
-      </c>
-      <c r="T19">
-        <v>0.04065556210472377</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23.7347125</v>
+      </c>
+      <c r="H25">
+        <v>47.469425</v>
+      </c>
+      <c r="I25">
+        <v>0.150884303501402</v>
+      </c>
+      <c r="J25">
+        <v>0.1116220131585018</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>117.9737524135084</v>
+      </c>
+      <c r="R25">
+        <v>707.8425144810501</v>
+      </c>
+      <c r="S25">
+        <v>0.0371353721867694</v>
+      </c>
+      <c r="T25">
+        <v>0.03655994080113412</v>
       </c>
     </row>
   </sheetData>
